--- a/simple_with_OPF/Demand_scenario_prep.xlsx
+++ b/simple_with_OPF/Demand_scenario_prep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de7c5f4e9a006291/Documents/Optimisation in MS/assignement/optimization_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{65116ED8-EA37-4D37-8999-07AB8B4FF59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022EC1F6-971D-428D-92CE-FC294BB21D83}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{65116ED8-EA37-4D37-8999-07AB8B4FF59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36EF7658-201B-4445-AB5E-809A3EAFA55A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,10 +92,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,7 +360,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,16 +393,16 @@
         <v>1775.835</v>
       </c>
       <c r="C2">
-        <f>B2*0.2</f>
-        <v>355.16700000000003</v>
+        <f>B2*1.3</f>
+        <v>2308.5855000000001</v>
       </c>
       <c r="D2">
-        <f>B2*30</f>
-        <v>53275.05</v>
+        <f>B2*1.7</f>
+        <v>3018.9195</v>
       </c>
       <c r="E2">
-        <f>10*B2</f>
-        <v>17758.349999999999</v>
+        <f>B2*2</f>
+        <v>3551.67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -417,16 +413,16 @@
         <v>1669.8150000000001</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C25" si="0">B3*0.2</f>
-        <v>333.96300000000002</v>
+        <f t="shared" ref="C3:C25" si="0">B3*1.3</f>
+        <v>2170.7595000000001</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="1">B3*30</f>
-        <v>50094.450000000004</v>
+        <f t="shared" ref="D3:D25" si="1">B3*1.7</f>
+        <v>2838.6855</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E25" si="2">10*B3</f>
-        <v>16698.150000000001</v>
+        <f t="shared" ref="E3:E25" si="2">B3*2</f>
+        <v>3339.63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -438,15 +434,15 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>318.06</v>
+        <v>2067.39</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>47709</v>
+        <v>2703.5099999999998</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>15903</v>
+        <v>3180.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -458,15 +454,15 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>312.75900000000001</v>
+        <v>2032.9335000000001</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>46913.850000000006</v>
+        <v>2658.4515000000001</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>15637.95</v>
+        <v>3127.59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -478,15 +474,15 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>312.75900000000001</v>
+        <v>2032.9335000000001</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>46913.850000000006</v>
+        <v>2658.4515000000001</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>15637.95</v>
+        <v>3127.59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -498,15 +494,15 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>318.06</v>
+        <v>2067.39</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>47709</v>
+        <v>2703.5099999999998</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>15903</v>
+        <v>3180.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -518,15 +514,15 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>392.274</v>
+        <v>2549.7809999999999</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>58841.1</v>
+        <v>3334.3289999999997</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>19613.699999999997</v>
+        <v>3922.74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -538,15 +534,15 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>455.88599999999997</v>
+        <v>2963.259</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>68382.899999999994</v>
+        <v>3875.0309999999995</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>22794.3</v>
+        <v>4558.8599999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -558,15 +554,15 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>503.59500000000003</v>
+        <v>3273.3674999999998</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>75539.25</v>
+        <v>4280.5574999999999</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>25179.75</v>
+        <v>5035.95</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,15 +574,15 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>508.89600000000002</v>
+        <v>3307.8240000000001</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>76334.399999999994</v>
+        <v>4325.616</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>25444.799999999999</v>
+        <v>5088.96</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -598,15 +594,15 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>508.89600000000002</v>
+        <v>3307.8240000000001</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>76334.399999999994</v>
+        <v>4325.616</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>25444.799999999999</v>
+        <v>5088.96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -618,15 +614,15 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>503.59500000000003</v>
+        <v>3273.3674999999998</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>75539.25</v>
+        <v>4280.5574999999999</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>25179.75</v>
+        <v>5035.95</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -638,15 +634,15 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>503.59500000000003</v>
+        <v>3273.3674999999998</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>75539.25</v>
+        <v>4280.5574999999999</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>25179.75</v>
+        <v>5035.95</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,15 +654,15 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>503.59500000000003</v>
+        <v>3273.3674999999998</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>75539.25</v>
+        <v>4280.5574999999999</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>25179.75</v>
+        <v>5035.95</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -678,15 +674,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>492.99300000000005</v>
+        <v>3204.4545000000003</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>73948.950000000012</v>
+        <v>4190.4404999999997</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>24649.65</v>
+        <v>4929.93</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -698,15 +694,15 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>492.99300000000005</v>
+        <v>3204.4545000000003</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>73948.950000000012</v>
+        <v>4190.4404999999997</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>24649.65</v>
+        <v>4929.93</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,15 +714,15 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>524.79899999999998</v>
+        <v>3411.1934999999999</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>78719.849999999991</v>
+        <v>4460.7914999999994</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>26239.949999999997</v>
+        <v>5247.99</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -738,15 +734,15 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>530.1</v>
+        <v>3445.65</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>79515</v>
+        <v>4505.8499999999995</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>26505</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -758,15 +754,15 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>530.1</v>
+        <v>3445.65</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>79515</v>
+        <v>4505.8499999999995</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>26505</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -778,15 +774,15 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>508.89600000000002</v>
+        <v>3307.8240000000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>76334.399999999994</v>
+        <v>4325.616</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>25444.799999999999</v>
+        <v>5088.96</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -798,15 +794,15 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>482.39100000000002</v>
+        <v>3135.5414999999998</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>72358.649999999994</v>
+        <v>4100.3234999999995</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>24119.55</v>
+        <v>4823.91</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -818,15 +814,15 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>439.983</v>
+        <v>2859.8895000000002</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>65997.45</v>
+        <v>3739.8554999999997</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>21999.15</v>
+        <v>4399.83</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -838,15 +834,15 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>386.97300000000001</v>
+        <v>2515.3245000000002</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>58045.95</v>
+        <v>3289.2705000000001</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>19348.650000000001</v>
+        <v>3869.73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -858,15 +854,15 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>333.96300000000002</v>
+        <v>2170.7595000000001</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>50094.450000000004</v>
+        <v>2838.6855</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>16698.150000000001</v>
+        <v>3339.63</v>
       </c>
     </row>
   </sheetData>
